--- a/fase1/Evidencias Grupales/PLANILLA DE EVALUACIÓN FASE 1.xlsx
+++ b/fase1/Evidencias Grupales/PLANILLA DE EVALUACIÓN FASE 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a4876bda3a09d1c/Desktop/PERSONAL MFC/DUOC/2025/Semestre 2/PTY4614 - CAPSTONE/02 Fases/003D/Grupo 7/Fase 1/Evidencias Grupales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a4876bda3a09d1c/Desktop/PERSONAL MFC/DUOC/2025/Semestre 2/PTY4614 - CAPSTONE/02 Fases/007V/Grupo 7/Fase 1/Evidencias Grupales/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="EVALUACION1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t>INTEGRANTES</t>
   </si>
@@ -379,13 +379,13 @@
     <t>Muy Relevante</t>
   </si>
   <si>
-    <t>ALEXANDER JAVIER EDUARDO FARFAN LUCERO</t>
+    <t>ALEJANDRO IGNACIO TRONCOSO VICUNA</t>
   </si>
   <si>
-    <t>BENJAMIN MALVINO ARELLANO</t>
+    <t>DIEGO VALENZUELA CARRIZO</t>
   </si>
   <si>
-    <t>DIEGO VILLAVICENCIO PIMENTEL</t>
+    <t>IVAN JAVIER DIAZ VEGA</t>
   </si>
   <si>
     <t>X</t>
@@ -482,13 +482,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF262626"/>
-      <name val="Open Sans"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,18 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF262626"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,6 +1000,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1128,12 +1119,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1468,7 +1453,7 @@
   <dimension ref="A2:K929"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1492,7 +1477,7 @@
       <c r="D2" s="2">
         <v>0.25</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="63">
         <v>1</v>
       </c>
     </row>
@@ -1506,26 +1491,26 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="32" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="6">
         <f>EVALUACION1!$C$24</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6">
         <f>$C$35</f>
-        <v>6</v>
-      </c>
-      <c r="E4" s="42">
-        <f>C4*C$2+D4*D$2+0.1</f>
-        <v>4.9749999999999996</v>
+        <v>4.3</v>
+      </c>
+      <c r="E4" s="43">
+        <f>C4*C$2+D4*D$2</f>
+        <v>4.8250000000000002</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1533,20 +1518,20 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="32" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="6">
         <f>EVALUACION1!$C$24</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6">
         <f>C47</f>
-        <v>6</v>
-      </c>
-      <c r="E5" s="42">
-        <f>C5*C$2+D5*D$2+0.1</f>
-        <v>4.9749999999999996</v>
+        <v>4.3</v>
+      </c>
+      <c r="E5" s="43">
+        <f t="shared" ref="E5:E6" si="0">C5*C$2+D5*D$2</f>
+        <v>4.8250000000000002</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1554,76 +1539,76 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="32" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="6">
         <f>EVALUACION1!$C$24</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6">
         <f>C58</f>
-        <v>6</v>
-      </c>
-      <c r="E6" s="42">
-        <f>C6*C$2+D6*D$2+0.1</f>
-        <v>4.9749999999999996</v>
+        <v>4.3</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" si="0"/>
+        <v>4.8250000000000002</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="18" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="58"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="57" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57" t="s">
+      <c r="G12" s="59"/>
+      <c r="H12" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="57" t="s">
+      <c r="I12" s="59"/>
+      <c r="J12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="58"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="34" t="str">
+      <c r="A13" s="65"/>
+      <c r="B13" s="35" t="str">
         <f>RUBRICA!A5</f>
         <v>1. Describe brevemente en qué consiste el Proyecto APT, justificando su relevancia para el campo laboral de su carrera.</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="16" t="str">
-        <f t="shared" ref="D13:D16" si="0">IF($C13=CL,"X","")</f>
+        <f t="shared" ref="D13:D16" si="1">IF($C13=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E13" s="16">
@@ -1631,7 +1616,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="16" t="str">
-        <f t="shared" ref="F13:F16" si="1">IF($C13=L,"X","")</f>
+        <f t="shared" ref="F13:F16" si="2">IF($C13=L,"X","")</f>
         <v/>
       </c>
       <c r="G13" s="16" t="str">
@@ -1639,7 +1624,7 @@
         <v/>
       </c>
       <c r="H13" s="16" t="str">
-        <f t="shared" ref="H13:H16" si="2">IF($C13=ML,"X","")</f>
+        <f t="shared" ref="H13:H16" si="3">IF($C13=ML,"X","")</f>
         <v/>
       </c>
       <c r="I13" s="16" t="str">
@@ -1647,101 +1632,109 @@
         <v/>
       </c>
       <c r="J13" s="16" t="str">
-        <f t="shared" ref="J13:J16" si="3">IF($C13=NL,"X","")</f>
+        <f t="shared" ref="J13:J16" si="4">IF($C13=NL,"X","")</f>
         <v/>
       </c>
       <c r="K13" s="16" t="str">
-        <f t="shared" ref="K13:K16" si="4">IF($J13="X",0,"")</f>
+        <f t="shared" ref="K13:K16" si="5">IF($J13="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="34" t="str">
+      <c r="A14" s="65"/>
+      <c r="B14" s="35" t="str">
         <f>RUBRICA!A6</f>
         <v>2. Relaciona el Proyecto APT con las competencias del perfil de egreso de su Plan de Estudio.</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="str">
-        <f t="shared" ref="E14" si="5">IF(D14="X",100*0.05,"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="16">
-        <f t="shared" ref="G14" si="6">IF(F14="X",60*0.05,"")</f>
-        <v>3</v>
+      <c r="D14" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14" si="6">IF(D14="X",100*0.05,"")</f>
+        <v>5</v>
+      </c>
+      <c r="F14" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="16" t="str">
+        <f t="shared" ref="G14" si="7">IF(F14="X",60*0.05,"")</f>
+        <v/>
       </c>
       <c r="H14" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I14" s="16" t="str">
-        <f t="shared" ref="I14" si="7">IF(H14="X",30*0.05,"")</f>
+        <f t="shared" ref="I14" si="8">IF(H14="X",30*0.05,"")</f>
         <v/>
       </c>
       <c r="J14" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K14" s="16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="34" t="str">
+      <c r="A15" s="65"/>
+      <c r="B15" s="35" t="str">
         <f>RUBRICA!A8</f>
         <v xml:space="preserve">4.  Argumenta por qué el proyecto es factible de realizarse en el marco de la asignatura. </v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="str">
-        <f t="shared" ref="E15:E21" si="8">IF(D15="X",100*0.05,"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="16">
-        <f t="shared" ref="G15:G21" si="9">IF(F15="X",60*0.05,"")</f>
-        <v>3</v>
+      <c r="D15" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" ref="E15:E21" si="9">IF(D15="X",100*0.05,"")</f>
+        <v>5</v>
+      </c>
+      <c r="F15" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" s="16" t="str">
+        <f t="shared" ref="G15:G21" si="10">IF(F15="X",60*0.05,"")</f>
+        <v/>
       </c>
       <c r="H15" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I15" s="16" t="str">
-        <f t="shared" ref="I15:I21" si="10">IF(H15="X",30*0.05,"")</f>
+        <f t="shared" ref="I15:I21" si="11">IF(H15="X",30*0.05,"")</f>
         <v/>
       </c>
       <c r="J15" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K15" s="16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="34" t="str">
+      <c r="A16" s="65"/>
+      <c r="B16" s="35" t="str">
         <f>RUBRICA!A9</f>
         <v xml:space="preserve">5. Formula objetivos claros, concisos y coherentes con la disciplina y la situación a abordar. </v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="E16" s="16">
@@ -1749,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G16" s="16" t="str">
@@ -1757,7 +1750,7 @@
         <v/>
       </c>
       <c r="H16" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I16" s="16" t="str">
@@ -1765,101 +1758,97 @@
         <v/>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K16" s="16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="34" t="str">
+      <c r="A17" s="65"/>
+      <c r="B17" s="35" t="str">
         <f>RUBRICA!A10</f>
         <v>6. Propone una metodología de trabajo que permite alcanzar los objetivos propuestos y es pertinente con los requerimientos disciplinares.</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16" t="str">
-        <f t="shared" ref="E17" si="11">IF(D17="X",100*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="16" t="str">
-        <f t="shared" ref="F17:F22" si="12">IF($C17=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G17" s="16" t="str">
+        <f t="shared" ref="E17" si="12">IF(D17="X",100*0.1,"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="16">
         <f t="shared" ref="G17" si="13">IF(F17="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="16">
-        <f t="shared" ref="I17" si="14">IF(H17="X",30*0.1,"")</f>
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="H17" s="16" t="str">
+        <f t="shared" ref="H17:H22" si="14">IF($C17=ML,"X","")</f>
+        <v/>
+      </c>
+      <c r="I17" s="16" t="str">
+        <f t="shared" ref="I17" si="15">IF(H17="X",30*0.1,"")</f>
+        <v/>
       </c>
       <c r="J17" s="16" t="str">
-        <f t="shared" ref="J17:J22" si="15">IF($C17=NL,"X","")</f>
+        <f t="shared" ref="J17:J22" si="16">IF($C17=NL,"X","")</f>
         <v/>
       </c>
       <c r="K17" s="16" t="str">
-        <f t="shared" ref="K17:K22" si="16">IF($J17="X",0,"")</f>
+        <f t="shared" ref="K17:K22" si="17">IF($J17="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="34" t="str">
+      <c r="A18" s="65"/>
+      <c r="B18" s="35" t="str">
         <f>RUBRICA!A11</f>
         <v xml:space="preserve">7. Establece un plan de trabajo para su proyecto APT considerando los recursos, duración, facilitadores y obstaculizadores en el desarrollo de las actividades. </v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="16" t="str">
-        <f t="shared" ref="D17:D22" si="17">IF($C18=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="str">
         <f t="shared" ref="E18" si="18">IF(D18="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F18" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G18" s="16" t="str">
+        <v/>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="16">
         <f t="shared" ref="G18" si="19">IF(F18="X",60*0.1,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="H18" s="16" t="str">
-        <f t="shared" ref="H17:H22" si="20">IF($C18=ML,"X","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I18" s="16" t="str">
-        <f t="shared" ref="I18" si="21">IF(H18="X",30*0.1,"")</f>
+        <f t="shared" ref="I18" si="20">IF(H18="X",30*0.1,"")</f>
         <v/>
       </c>
       <c r="J18" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K18" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="34" t="str">
+      <c r="A19" s="65"/>
+      <c r="B19" s="35" t="str">
         <f>RUBRICA!A12</f>
         <v>8. Determina evidencias, justificando cómo estas dan cuenta del logro de las actividades del Proyecto APT.</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="16"/>
@@ -1868,7 +1857,7 @@
         <v/>
       </c>
       <c r="F19" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F17:F22" si="21">IF($C19=L,"X","")</f>
         <v/>
       </c>
       <c r="G19" s="16" t="str">
@@ -1883,102 +1872,106 @@
         <v>1.5</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K19" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="34" t="str">
+      <c r="A20" s="65"/>
+      <c r="B20" s="35" t="str">
         <f>RUBRICA!A13</f>
         <v xml:space="preserve">9. Utiliza reglas de redacción, ortografía (literal, puntual, acentual) y las normas para citas y referencias. </v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="str">
+      <c r="D20" s="16" t="str">
+        <f t="shared" ref="D17:D22" si="24">IF($C20=CL,"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="E20" s="16">
         <f>IF(D20="X",100*0.05,"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="16">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F20" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G20" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="H20" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I20" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J20" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K20" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:11" ht="22.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="34" t="str">
+      <c r="A21" s="65"/>
+      <c r="B21" s="35" t="str">
         <f>RUBRICA!A14</f>
         <v>10. Cumple completando el contenido del informe de presentación del proyecto de acuerdo con la plantilla entregada.</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="16" t="str">
+        <f t="shared" si="24"/>
+        <v>X</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F21" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G21" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H21" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I21" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J21" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K21" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>X</v>
-      </c>
-      <c r="E21" s="16">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="F21" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G21" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H21" s="16" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I21" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J21" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K21" s="16" t="str">
-        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:11" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="34" t="str">
+      <c r="A22" s="65"/>
+      <c r="B22" s="35" t="str">
         <f>RUBRICA!A16</f>
         <v>12. Desarrolla un plan de trabajo que permita del logro de los objetivos propuestos del proyecto de 
 acuerdo a los tiempos para su desarrollo</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="16"/>
@@ -1987,7 +1980,7 @@
         <v/>
       </c>
       <c r="F22" s="16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G22" s="16" t="str">
@@ -2002,37 +1995,37 @@
         <v>3</v>
       </c>
       <c r="J22" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K22" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="60"/>
-      <c r="B23" s="33" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="37">
         <f>E23+G23+I23+K23</f>
-        <v>46.5</v>
+        <v>51.5</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19">
         <f>SUM(E13:E22)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19">
         <f>SUM(G13:G22)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19">
         <f>SUM(I13:I22)</f>
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19">
@@ -2041,103 +2034,103 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="49"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="50"/>
+      <c r="B24" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="20">
         <f>VLOOKUP(C23,ESCALA_IEP!A2:B142,2,FALSE)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="51" t="str">
+      <c r="C27" s="52" t="str">
         <f>$B$4</f>
-        <v>ALEXANDER JAVIER EDUARDO FARFAN LUCERO</v>
-      </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
+        <v>ALEJANDRO IGNACIO TRONCOSO VICUNA</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="56"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="58"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="59"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="57" t="s">
+      <c r="C30" s="50"/>
+      <c r="D30" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="57" t="s">
+      <c r="E30" s="59"/>
+      <c r="F30" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="57" t="s">
+      <c r="G30" s="59"/>
+      <c r="H30" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="57" t="s">
+      <c r="I30" s="59"/>
+      <c r="J30" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="58"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="31" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="34" t="str">
+      <c r="A31" s="61"/>
+      <c r="B31" s="35" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="16" t="str">
-        <f t="shared" ref="D31:D32" si="24">IF($C31=CL,"X","")</f>
+        <f t="shared" ref="D31:D32" si="25">IF($C31=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E31" s="16">
@@ -2145,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="16" t="str">
-        <f t="shared" ref="F31:F32" si="25">IF($C31=L,"X","")</f>
+        <f t="shared" ref="F31:F32" si="26">IF($C31=L,"X","")</f>
         <v/>
       </c>
       <c r="G31" s="16" t="str">
@@ -2153,7 +2146,7 @@
         <v/>
       </c>
       <c r="H31" s="16" t="str">
-        <f t="shared" ref="H31:H32" si="26">IF($C31=ML,"X","")</f>
+        <f t="shared" ref="H31:H32" si="27">IF($C31=ML,"X","")</f>
         <v/>
       </c>
       <c r="I31" s="16" t="str">
@@ -2161,41 +2154,37 @@
         <v/>
       </c>
       <c r="J31" s="16" t="str">
-        <f t="shared" ref="J31:J32" si="27">IF($C31=NL,"X","")</f>
+        <f t="shared" ref="J31:J32" si="28">IF($C31=NL,"X","")</f>
         <v/>
       </c>
       <c r="K31" s="16" t="str">
-        <f t="shared" ref="K31:K32" si="28">IF($J31="X",0,"")</f>
+        <f t="shared" ref="K31:K32" si="29">IF($J31="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="34" t="str">
+      <c r="A32" s="61"/>
+      <c r="B32" s="35" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="16" t="str">
-        <f t="shared" si="24"/>
-        <v>X</v>
-      </c>
-      <c r="E32" s="16">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="str">
         <f>IF(D32="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F32" s="16" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G32" s="16" t="str">
+        <v/>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="16">
         <f>IF(F32="X",60*0.1,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="H32" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I32" s="16" t="str">
@@ -2203,21 +2192,21 @@
         <v/>
       </c>
       <c r="J32" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K32" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
-      <c r="B33" s="34" t="str">
+      <c r="A33" s="61"/>
+      <c r="B33" s="35" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="16"/>
@@ -2225,20 +2214,20 @@
         <f>IF(D33="X",100*0.1,"")</f>
         <v/>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="16" t="str">
+        <f>IF($C33=L,"X","")</f>
+        <v/>
+      </c>
+      <c r="G33" s="16" t="str">
+        <f>IF(F33="X",60*0.1,"")</f>
+        <v/>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="16">
-        <f>IF(F33="X",60*0.1,"")</f>
-        <v>6</v>
-      </c>
-      <c r="H33" s="16" t="str">
-        <f>IF($C33=ML,"X","")</f>
-        <v/>
-      </c>
-      <c r="I33" s="16" t="str">
+      <c r="I33" s="16">
         <f>IF(H33="X",30*0.1,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J33" s="16" t="str">
         <f>IF($C33=NL,"X","")</f>
@@ -2250,43 +2239,43 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="60"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="18">
         <f>E34+G34+I34+K34</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19">
         <f>SUM(E31:E33)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="19">
-        <f t="shared" ref="G34:K34" si="29">SUM(G31:G33)</f>
+        <f t="shared" ref="G34:K34" si="30">SUM(G31:G33)</f>
         <v>6</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>3</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="20">
         <f>VLOOKUP(C34,ESCALA_TRAB_EQUIP!A2:B62,2,FALSE)</f>
-        <v>6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2299,91 +2288,91 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="51" t="str">
+      <c r="C39" s="52" t="str">
         <f>B5</f>
-        <v>BENJAMIN MALVINO ARELLANO</v>
-      </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
+        <v>DIEGO VALENZUELA CARRIZO</v>
+      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="56"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="57"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="58"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="59"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="57" t="s">
+      <c r="C42" s="50"/>
+      <c r="D42" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="57" t="s">
+      <c r="E42" s="59"/>
+      <c r="F42" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="57" t="s">
+      <c r="G42" s="59"/>
+      <c r="H42" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="58"/>
-      <c r="J42" s="57" t="s">
+      <c r="I42" s="59"/>
+      <c r="J42" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="58"/>
+      <c r="K42" s="59"/>
     </row>
     <row r="43" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="60"/>
-      <c r="B43" s="34" t="str">
+      <c r="A43" s="61"/>
+      <c r="B43" s="35" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="16" t="str">
-        <f t="shared" ref="D43:D44" si="30">IF($C43=CL,"X","")</f>
+        <f t="shared" ref="D43:D44" si="31">IF($C43=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E43" s="16">
@@ -2391,7 +2380,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="16" t="str">
-        <f t="shared" ref="F43:F44" si="31">IF($C43=L,"X","")</f>
+        <f t="shared" ref="F43:F44" si="32">IF($C43=L,"X","")</f>
         <v/>
       </c>
       <c r="G43" s="16" t="str">
@@ -2399,7 +2388,7 @@
         <v/>
       </c>
       <c r="H43" s="16" t="str">
-        <f t="shared" ref="H43:H44" si="32">IF($C43=ML,"X","")</f>
+        <f t="shared" ref="H43:H44" si="33">IF($C43=ML,"X","")</f>
         <v/>
       </c>
       <c r="I43" s="16" t="str">
@@ -2407,41 +2396,37 @@
         <v/>
       </c>
       <c r="J43" s="16" t="str">
-        <f t="shared" ref="J43:J44" si="33">IF($C43=NL,"X","")</f>
+        <f t="shared" ref="J43:J44" si="34">IF($C43=NL,"X","")</f>
         <v/>
       </c>
       <c r="K43" s="16" t="str">
-        <f t="shared" ref="K43:K44" si="34">IF($J43="X",0,"")</f>
+        <f t="shared" ref="K43:K44" si="35">IF($J43="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A44" s="60"/>
-      <c r="B44" s="34" t="str">
+      <c r="A44" s="61"/>
+      <c r="B44" s="35" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v>X</v>
-      </c>
-      <c r="E44" s="16">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16" t="str">
         <f>IF(D44="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F44" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="G44" s="16" t="str">
+        <v/>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="16">
         <f>IF(F44="X",60*0.1,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="H44" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I44" s="16" t="str">
@@ -2449,21 +2434,21 @@
         <v/>
       </c>
       <c r="J44" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K44" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="60"/>
-      <c r="B45" s="34" t="str">
+      <c r="A45" s="61"/>
+      <c r="B45" s="35" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="16"/>
@@ -2471,20 +2456,20 @@
         <f>IF(D45="X",100*0.1,"")</f>
         <v/>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="16" t="str">
+        <f>IF($C45=L,"X","")</f>
+        <v/>
+      </c>
+      <c r="G45" s="16" t="str">
+        <f>IF(F45="X",60*0.1,"")</f>
+        <v/>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="16">
-        <f>IF(F45="X",60*0.1,"")</f>
-        <v>6</v>
-      </c>
-      <c r="H45" s="16" t="str">
-        <f>IF($C45=ML,"X","")</f>
-        <v/>
-      </c>
-      <c r="I45" s="16" t="str">
+      <c r="I45" s="16">
         <f>IF(H45="X",30*0.1,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J45" s="16" t="str">
         <f>IF($C45=NL,"X","")</f>
@@ -2496,43 +2481,43 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="60"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="18">
         <f>E46+G46+I46+K46</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19">
         <f>SUM(E43:E45)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19">
-        <f t="shared" ref="G46" si="35">SUM(G43:G45)</f>
+        <f t="shared" ref="G46" si="36">SUM(G43:G45)</f>
         <v>6</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19">
-        <f t="shared" ref="I46" si="36">SUM(I43:I45)</f>
-        <v>0</v>
+        <f t="shared" ref="I46" si="37">SUM(I43:I45)</f>
+        <v>3</v>
       </c>
       <c r="J46" s="19"/>
       <c r="K46" s="19">
-        <f t="shared" ref="K46" si="37">SUM(K43:K45)</f>
+        <f t="shared" ref="K46" si="38">SUM(K43:K45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="49"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="20">
         <f>VLOOKUP(C46,ESCALA_TRAB_EQUIP!A2:B62,2,FALSE)</f>
-        <v>6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2544,91 +2529,91 @@
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="51" t="str">
+      <c r="C50" s="52" t="str">
         <f>B6</f>
-        <v>DIEGO VILLAVICENCIO PIMENTEL</v>
-      </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="53"/>
+        <v>IVAN JAVIER DIAZ VEGA</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="54"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="60"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="56"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="57"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="58"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="59"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="60"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="57" t="s">
+      <c r="C53" s="50"/>
+      <c r="D53" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="57" t="s">
+      <c r="E53" s="59"/>
+      <c r="F53" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="57" t="s">
+      <c r="G53" s="59"/>
+      <c r="H53" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="58"/>
-      <c r="J53" s="57" t="s">
+      <c r="I53" s="59"/>
+      <c r="J53" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K53" s="58"/>
+      <c r="K53" s="59"/>
     </row>
     <row r="54" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="60"/>
-      <c r="B54" s="34" t="str">
+      <c r="A54" s="61"/>
+      <c r="B54" s="35" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="16" t="str">
-        <f t="shared" ref="D54:D55" si="38">IF($C54=CL,"X","")</f>
+        <f t="shared" ref="D54:D55" si="39">IF($C54=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E54" s="16">
@@ -2636,7 +2621,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="16" t="str">
-        <f t="shared" ref="F54:F55" si="39">IF($C54=L,"X","")</f>
+        <f t="shared" ref="F54:F55" si="40">IF($C54=L,"X","")</f>
         <v/>
       </c>
       <c r="G54" s="16" t="str">
@@ -2644,7 +2629,7 @@
         <v/>
       </c>
       <c r="H54" s="16" t="str">
-        <f t="shared" ref="H54:H55" si="40">IF($C54=ML,"X","")</f>
+        <f t="shared" ref="H54:H55" si="41">IF($C54=ML,"X","")</f>
         <v/>
       </c>
       <c r="I54" s="16" t="str">
@@ -2652,41 +2637,37 @@
         <v/>
       </c>
       <c r="J54" s="16" t="str">
-        <f t="shared" ref="J54:J55" si="41">IF($C54=NL,"X","")</f>
+        <f t="shared" ref="J54:J55" si="42">IF($C54=NL,"X","")</f>
         <v/>
       </c>
       <c r="K54" s="16" t="str">
-        <f t="shared" ref="K54:K55" si="42">IF($J54="X",0,"")</f>
+        <f t="shared" ref="K54:K55" si="43">IF($J54="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A55" s="60"/>
-      <c r="B55" s="34" t="str">
+      <c r="A55" s="61"/>
+      <c r="B55" s="35" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="16" t="str">
-        <f t="shared" si="38"/>
-        <v>X</v>
-      </c>
-      <c r="E55" s="16">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16" t="str">
         <f>IF(D55="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F55" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G55" s="16" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="16">
         <f>IF(F55="X",60*0.1,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="H55" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I55" s="16" t="str">
@@ -2694,21 +2675,21 @@
         <v/>
       </c>
       <c r="J55" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="K55" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="60"/>
-      <c r="B56" s="34" t="str">
+      <c r="A56" s="61"/>
+      <c r="B56" s="35" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="16"/>
@@ -2716,20 +2697,20 @@
         <f>IF(D56="X",100*0.1,"")</f>
         <v/>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="16" t="str">
+        <f>IF($C56=L,"X","")</f>
+        <v/>
+      </c>
+      <c r="G56" s="16" t="str">
+        <f>IF(F56="X",60*0.1,"")</f>
+        <v/>
+      </c>
+      <c r="H56" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G56" s="16">
-        <f>IF(F56="X",60*0.1,"")</f>
-        <v>6</v>
-      </c>
-      <c r="H56" s="16" t="str">
-        <f>IF($C56=ML,"X","")</f>
-        <v/>
-      </c>
-      <c r="I56" s="16" t="str">
+      <c r="I56" s="16">
         <f>IF(H56="X",30*0.1,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J56" s="16" t="str">
         <f>IF($C56=NL,"X","")</f>
@@ -2741,55 +2722,55 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="60"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="18">
         <f>E57+G57+I57+K57</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D57" s="19">
         <f>COUNTIF(D55:D56,"X")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="19">
         <f>SUM(E54:E56)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F57" s="19">
-        <f t="shared" ref="F57" si="43">SUM(F54:F56)</f>
+        <f t="shared" ref="F57" si="44">SUM(F54:F56)</f>
         <v>0</v>
       </c>
       <c r="G57" s="19">
-        <f t="shared" ref="G57" si="44">SUM(G54:G56)</f>
+        <f t="shared" ref="G57" si="45">SUM(G54:G56)</f>
         <v>6</v>
       </c>
       <c r="H57" s="19">
-        <f t="shared" ref="H57" si="45">SUM(H54:H56)</f>
+        <f t="shared" ref="H57" si="46">SUM(H54:H56)</f>
         <v>0</v>
       </c>
       <c r="I57" s="19">
-        <f t="shared" ref="I57" si="46">SUM(I54:I56)</f>
+        <f t="shared" ref="I57" si="47">SUM(I54:I56)</f>
+        <v>3</v>
+      </c>
+      <c r="J57" s="19">
+        <f t="shared" ref="J57" si="48">SUM(J54:J56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="19">
-        <f t="shared" ref="J57" si="47">SUM(J54:J56)</f>
+      <c r="K57" s="19">
+        <f t="shared" ref="K57" si="49">SUM(K54:K56)</f>
         <v>0</v>
       </c>
-      <c r="K57" s="19">
-        <f t="shared" ref="K57" si="48">SUM(K54:K56)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="49"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="20">
         <f>VLOOKUP(C57,ESCALA_TRAB_EQUIP!A2:B62,2,FALSE)</f>
-        <v>6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3754,25 +3735,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="68" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="69" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -3781,34 +3762,34 @@
       <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="70"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="26">
         <v>-0.3</v>
       </c>
       <c r="E4" s="26">
         <v>0</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="28">
@@ -3816,19 +3797,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="46" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="30">
@@ -3836,19 +3817,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="94.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="42" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="31">
@@ -3856,19 +3837,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="42" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="31">
@@ -3876,19 +3857,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="28">
@@ -3896,19 +3877,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="39" t="s">
         <v>53</v>
       </c>
       <c r="F10" s="28">
@@ -3916,19 +3897,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="45" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="30">
@@ -3936,79 +3917,79 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="39" t="s">
         <v>78</v>
       </c>
       <c r="F15" s="28">
@@ -4016,19 +3997,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="39" t="s">
         <v>83</v>
       </c>
       <c r="F16" s="28">
@@ -4036,19 +4017,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="39" t="s">
         <v>88</v>
       </c>
       <c r="F17" s="28">
@@ -4056,13 +4037,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="29">
         <v>1</v>
       </c>
@@ -4105,7 +4086,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4113,7 +4094,7 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4121,7 +4102,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="44">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4129,7 +4110,7 @@
       <c r="A5">
         <v>1.5</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="44">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4137,7 +4118,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="44">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4145,7 +4126,7 @@
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <v>1.2</v>
       </c>
     </row>
@@ -4153,7 +4134,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="44">
         <v>1.2</v>
       </c>
     </row>
@@ -4161,7 +4142,7 @@
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="44">
         <v>1.3</v>
       </c>
     </row>
@@ -4169,7 +4150,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="44">
         <v>1.3</v>
       </c>
     </row>
@@ -4177,7 +4158,7 @@
       <c r="A11">
         <v>4.5</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="44">
         <v>1.3</v>
       </c>
     </row>
@@ -4185,7 +4166,7 @@
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="44">
         <v>1.4</v>
       </c>
     </row>
@@ -4193,7 +4174,7 @@
       <c r="A13">
         <v>5.5</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="44">
         <v>1.4</v>
       </c>
     </row>
@@ -4201,7 +4182,7 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="44">
         <v>1.4</v>
       </c>
     </row>
@@ -4209,7 +4190,7 @@
       <c r="A15">
         <v>6.5</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="44">
         <v>1.5</v>
       </c>
     </row>
@@ -4217,7 +4198,7 @@
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="44">
         <v>1.5</v>
       </c>
     </row>
@@ -4225,7 +4206,7 @@
       <c r="A17">
         <v>7.5</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="44">
         <v>1.5</v>
       </c>
     </row>
@@ -4233,7 +4214,7 @@
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="44">
         <v>1.6</v>
       </c>
     </row>
@@ -4241,7 +4222,7 @@
       <c r="A19">
         <v>8.5</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="44">
         <v>1.6</v>
       </c>
     </row>
@@ -4249,7 +4230,7 @@
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="44">
         <v>1.6</v>
       </c>
     </row>
@@ -4257,7 +4238,7 @@
       <c r="A21">
         <v>9.5</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="44">
         <v>1.7</v>
       </c>
     </row>
@@ -4265,7 +4246,7 @@
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="44">
         <v>1.7</v>
       </c>
     </row>
@@ -4273,7 +4254,7 @@
       <c r="A23">
         <v>10.5</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="44">
         <v>1.8</v>
       </c>
     </row>
@@ -4281,7 +4262,7 @@
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="44">
         <v>1.8</v>
       </c>
     </row>
@@ -4289,7 +4270,7 @@
       <c r="A25">
         <v>11.5</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="44">
         <v>1.8</v>
       </c>
     </row>
@@ -4297,7 +4278,7 @@
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="44">
         <v>1.9</v>
       </c>
     </row>
@@ -4305,7 +4286,7 @@
       <c r="A27">
         <v>12.5</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="44">
         <v>1.9</v>
       </c>
     </row>
@@ -4313,7 +4294,7 @@
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="44">
         <v>1.9</v>
       </c>
     </row>
@@ -4321,7 +4302,7 @@
       <c r="A29">
         <v>13.5</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="44">
         <v>2</v>
       </c>
     </row>
@@ -4329,7 +4310,7 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="44">
         <v>2</v>
       </c>
     </row>
@@ -4337,7 +4318,7 @@
       <c r="A31">
         <v>14.5</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="44">
         <v>2</v>
       </c>
     </row>
@@ -4345,7 +4326,7 @@
       <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="44">
         <v>2.1</v>
       </c>
     </row>
@@ -4353,7 +4334,7 @@
       <c r="A33">
         <v>15.5</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="44">
         <v>2.1</v>
       </c>
     </row>
@@ -4361,7 +4342,7 @@
       <c r="A34">
         <v>16</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="44">
         <v>2.1</v>
       </c>
     </row>
@@ -4369,7 +4350,7 @@
       <c r="A35">
         <v>16.5</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="44">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -4377,7 +4358,7 @@
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="44">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -4385,7 +4366,7 @@
       <c r="A37">
         <v>17.5</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="44">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4393,7 +4374,7 @@
       <c r="A38">
         <v>18</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="44">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4401,7 +4382,7 @@
       <c r="A39">
         <v>18.5</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="44">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4409,7 +4390,7 @@
       <c r="A40">
         <v>19</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="44">
         <v>2.4</v>
       </c>
     </row>
@@ -4417,7 +4398,7 @@
       <c r="A41">
         <v>19.5</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="44">
         <v>2.4</v>
       </c>
     </row>
@@ -4425,7 +4406,7 @@
       <c r="A42">
         <v>20</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="44">
         <v>2.4</v>
       </c>
     </row>
@@ -4433,7 +4414,7 @@
       <c r="A43">
         <v>20.5</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="44">
         <v>2.5</v>
       </c>
     </row>
@@ -4441,7 +4422,7 @@
       <c r="A44">
         <v>21</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="44">
         <v>2.5</v>
       </c>
     </row>
@@ -4449,7 +4430,7 @@
       <c r="A45">
         <v>21.5</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="44">
         <v>2.5</v>
       </c>
     </row>
@@ -4457,7 +4438,7 @@
       <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="44">
         <v>2.6</v>
       </c>
     </row>
@@ -4465,7 +4446,7 @@
       <c r="A47">
         <v>22.5</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="44">
         <v>2.6</v>
       </c>
     </row>
@@ -4473,7 +4454,7 @@
       <c r="A48">
         <v>23</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="44">
         <v>2.6</v>
       </c>
     </row>
@@ -4481,7 +4462,7 @@
       <c r="A49">
         <v>23.5</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="44">
         <v>2.7</v>
       </c>
     </row>
@@ -4489,7 +4470,7 @@
       <c r="A50">
         <v>24</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="44">
         <v>2.7</v>
       </c>
     </row>
@@ -4497,7 +4478,7 @@
       <c r="A51">
         <v>24.5</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="44">
         <v>2.8</v>
       </c>
     </row>
@@ -4505,7 +4486,7 @@
       <c r="A52">
         <v>25</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="44">
         <v>2.8</v>
       </c>
     </row>
@@ -4513,7 +4494,7 @@
       <c r="A53">
         <v>25.5</v>
       </c>
-      <c r="B53" s="43">
+      <c r="B53" s="44">
         <v>2.8</v>
       </c>
     </row>
@@ -4521,7 +4502,7 @@
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="44">
         <v>2.9</v>
       </c>
     </row>
@@ -4529,7 +4510,7 @@
       <c r="A55">
         <v>26.5</v>
       </c>
-      <c r="B55" s="43">
+      <c r="B55" s="44">
         <v>2.9</v>
       </c>
     </row>
@@ -4537,7 +4518,7 @@
       <c r="A56">
         <v>27</v>
       </c>
-      <c r="B56" s="43">
+      <c r="B56" s="44">
         <v>2.9</v>
       </c>
     </row>
@@ -4545,7 +4526,7 @@
       <c r="A57">
         <v>27.5</v>
       </c>
-      <c r="B57" s="43">
+      <c r="B57" s="44">
         <v>3</v>
       </c>
     </row>
@@ -4553,7 +4534,7 @@
       <c r="A58">
         <v>28</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="44">
         <v>3</v>
       </c>
     </row>
@@ -4561,7 +4542,7 @@
       <c r="A59">
         <v>28.5</v>
       </c>
-      <c r="B59" s="43">
+      <c r="B59" s="44">
         <v>3</v>
       </c>
     </row>
@@ -4569,7 +4550,7 @@
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="44">
         <v>3.1</v>
       </c>
     </row>
@@ -4577,7 +4558,7 @@
       <c r="A61">
         <v>29.5</v>
       </c>
-      <c r="B61" s="43">
+      <c r="B61" s="44">
         <v>3.1</v>
       </c>
     </row>
@@ -4585,7 +4566,7 @@
       <c r="A62">
         <v>30</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="44">
         <v>3.1</v>
       </c>
     </row>
@@ -4593,7 +4574,7 @@
       <c r="A63">
         <v>30.5</v>
       </c>
-      <c r="B63" s="43">
+      <c r="B63" s="44">
         <v>3.2</v>
       </c>
     </row>
@@ -4601,7 +4582,7 @@
       <c r="A64">
         <v>31</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="44">
         <v>3.2</v>
       </c>
     </row>
@@ -4609,7 +4590,7 @@
       <c r="A65">
         <v>31.5</v>
       </c>
-      <c r="B65" s="43">
+      <c r="B65" s="44">
         <v>3.3</v>
       </c>
     </row>
@@ -4617,7 +4598,7 @@
       <c r="A66">
         <v>32</v>
       </c>
-      <c r="B66" s="43">
+      <c r="B66" s="44">
         <v>3.3</v>
       </c>
     </row>
@@ -4625,7 +4606,7 @@
       <c r="A67">
         <v>32.5</v>
       </c>
-      <c r="B67" s="43">
+      <c r="B67" s="44">
         <v>3.3</v>
       </c>
     </row>
@@ -4633,7 +4614,7 @@
       <c r="A68">
         <v>33</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="44">
         <v>3.4</v>
       </c>
     </row>
@@ -4641,7 +4622,7 @@
       <c r="A69">
         <v>33.5</v>
       </c>
-      <c r="B69" s="43">
+      <c r="B69" s="44">
         <v>3.4</v>
       </c>
     </row>
@@ -4649,7 +4630,7 @@
       <c r="A70">
         <v>34</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="44">
         <v>3.4</v>
       </c>
     </row>
@@ -4657,7 +4638,7 @@
       <c r="A71">
         <v>34.5</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B71" s="44">
         <v>3.5</v>
       </c>
     </row>
@@ -4665,7 +4646,7 @@
       <c r="A72">
         <v>35</v>
       </c>
-      <c r="B72" s="43">
+      <c r="B72" s="44">
         <v>3.5</v>
       </c>
     </row>
@@ -4673,7 +4654,7 @@
       <c r="A73">
         <v>35.5</v>
       </c>
-      <c r="B73" s="43">
+      <c r="B73" s="44">
         <v>3.5</v>
       </c>
     </row>
@@ -4681,7 +4662,7 @@
       <c r="A74">
         <v>36</v>
       </c>
-      <c r="B74" s="43">
+      <c r="B74" s="44">
         <v>3.6</v>
       </c>
     </row>
@@ -4689,7 +4670,7 @@
       <c r="A75">
         <v>36.5</v>
       </c>
-      <c r="B75" s="43">
+      <c r="B75" s="44">
         <v>3.6</v>
       </c>
     </row>
@@ -4697,7 +4678,7 @@
       <c r="A76">
         <v>37</v>
       </c>
-      <c r="B76" s="43">
+      <c r="B76" s="44">
         <v>3.6</v>
       </c>
     </row>
@@ -4705,7 +4686,7 @@
       <c r="A77">
         <v>37.5</v>
       </c>
-      <c r="B77" s="43">
+      <c r="B77" s="44">
         <v>3.7</v>
       </c>
     </row>
@@ -4713,7 +4694,7 @@
       <c r="A78">
         <v>38</v>
       </c>
-      <c r="B78" s="43">
+      <c r="B78" s="44">
         <v>3.7</v>
       </c>
     </row>
@@ -4721,7 +4702,7 @@
       <c r="A79">
         <v>38.5</v>
       </c>
-      <c r="B79" s="43">
+      <c r="B79" s="44">
         <v>3.8</v>
       </c>
     </row>
@@ -4729,7 +4710,7 @@
       <c r="A80">
         <v>39</v>
       </c>
-      <c r="B80" s="43">
+      <c r="B80" s="44">
         <v>3.8</v>
       </c>
     </row>
@@ -4737,7 +4718,7 @@
       <c r="A81">
         <v>39.5</v>
       </c>
-      <c r="B81" s="43">
+      <c r="B81" s="44">
         <v>3.8</v>
       </c>
     </row>
@@ -4745,7 +4726,7 @@
       <c r="A82">
         <v>40</v>
       </c>
-      <c r="B82" s="43">
+      <c r="B82" s="44">
         <v>3.9</v>
       </c>
     </row>
@@ -4753,7 +4734,7 @@
       <c r="A83">
         <v>40.5</v>
       </c>
-      <c r="B83" s="43">
+      <c r="B83" s="44">
         <v>3.9</v>
       </c>
     </row>
@@ -4761,7 +4742,7 @@
       <c r="A84">
         <v>41</v>
       </c>
-      <c r="B84" s="43">
+      <c r="B84" s="44">
         <v>3.9</v>
       </c>
     </row>
@@ -4769,7 +4750,7 @@
       <c r="A85">
         <v>41.5</v>
       </c>
-      <c r="B85" s="43">
+      <c r="B85" s="44">
         <v>4</v>
       </c>
     </row>
@@ -4777,7 +4758,7 @@
       <c r="A86">
         <v>42</v>
       </c>
-      <c r="B86" s="43">
+      <c r="B86" s="44">
         <v>4</v>
       </c>
     </row>
@@ -4785,7 +4766,7 @@
       <c r="A87">
         <v>42.5</v>
       </c>
-      <c r="B87" s="43">
+      <c r="B87" s="44">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4793,7 +4774,7 @@
       <c r="A88">
         <v>43</v>
       </c>
-      <c r="B88" s="43">
+      <c r="B88" s="44">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4801,7 +4782,7 @@
       <c r="A89">
         <v>43.5</v>
       </c>
-      <c r="B89" s="43">
+      <c r="B89" s="44">
         <v>4.2</v>
       </c>
     </row>
@@ -4809,7 +4790,7 @@
       <c r="A90">
         <v>44</v>
       </c>
-      <c r="B90" s="43">
+      <c r="B90" s="44">
         <v>4.2</v>
       </c>
     </row>
@@ -4817,7 +4798,7 @@
       <c r="A91">
         <v>44.5</v>
       </c>
-      <c r="B91" s="43">
+      <c r="B91" s="44">
         <v>4.3</v>
       </c>
     </row>
@@ -4825,7 +4806,7 @@
       <c r="A92">
         <v>45</v>
       </c>
-      <c r="B92" s="43">
+      <c r="B92" s="44">
         <v>4.3</v>
       </c>
     </row>
@@ -4833,7 +4814,7 @@
       <c r="A93">
         <v>45.5</v>
       </c>
-      <c r="B93" s="43">
+      <c r="B93" s="44">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -4841,7 +4822,7 @@
       <c r="A94">
         <v>46</v>
       </c>
-      <c r="B94" s="43">
+      <c r="B94" s="44">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -4849,7 +4830,7 @@
       <c r="A95">
         <v>46.5</v>
       </c>
-      <c r="B95" s="43">
+      <c r="B95" s="44">
         <v>4.5</v>
       </c>
     </row>
@@ -4857,7 +4838,7 @@
       <c r="A96">
         <v>47</v>
       </c>
-      <c r="B96" s="43">
+      <c r="B96" s="44">
         <v>4.5</v>
       </c>
     </row>
@@ -4865,7 +4846,7 @@
       <c r="A97">
         <v>47.5</v>
       </c>
-      <c r="B97" s="43">
+      <c r="B97" s="44">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -4873,7 +4854,7 @@
       <c r="A98">
         <v>48</v>
       </c>
-      <c r="B98" s="43">
+      <c r="B98" s="44">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -4881,7 +4862,7 @@
       <c r="A99">
         <v>48.5</v>
       </c>
-      <c r="B99" s="43">
+      <c r="B99" s="44">
         <v>4.7</v>
       </c>
     </row>
@@ -4889,7 +4870,7 @@
       <c r="A100">
         <v>49</v>
       </c>
-      <c r="B100" s="43">
+      <c r="B100" s="44">
         <v>4.8</v>
       </c>
     </row>
@@ -4897,7 +4878,7 @@
       <c r="A101">
         <v>49.5</v>
       </c>
-      <c r="B101" s="43">
+      <c r="B101" s="44">
         <v>4.8</v>
       </c>
     </row>
@@ -4905,7 +4886,7 @@
       <c r="A102">
         <v>50</v>
       </c>
-      <c r="B102" s="43">
+      <c r="B102" s="44">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4913,7 +4894,7 @@
       <c r="A103">
         <v>50.5</v>
       </c>
-      <c r="B103" s="43">
+      <c r="B103" s="44">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4921,7 +4902,7 @@
       <c r="A104">
         <v>51</v>
       </c>
-      <c r="B104" s="43">
+      <c r="B104" s="44">
         <v>5</v>
       </c>
     </row>
@@ -4929,7 +4910,7 @@
       <c r="A105">
         <v>51.5</v>
       </c>
-      <c r="B105" s="43">
+      <c r="B105" s="44">
         <v>5</v>
       </c>
     </row>
@@ -4937,7 +4918,7 @@
       <c r="A106">
         <v>52</v>
       </c>
-      <c r="B106" s="43">
+      <c r="B106" s="44">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -4945,7 +4926,7 @@
       <c r="A107">
         <v>52.5</v>
       </c>
-      <c r="B107" s="43">
+      <c r="B107" s="44">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -4953,7 +4934,7 @@
       <c r="A108">
         <v>53</v>
       </c>
-      <c r="B108" s="43">
+      <c r="B108" s="44">
         <v>5.2</v>
       </c>
     </row>
@@ -4961,7 +4942,7 @@
       <c r="A109">
         <v>53.5</v>
       </c>
-      <c r="B109" s="43">
+      <c r="B109" s="44">
         <v>5.2</v>
       </c>
     </row>
@@ -4969,7 +4950,7 @@
       <c r="A110">
         <v>54</v>
       </c>
-      <c r="B110" s="43">
+      <c r="B110" s="44">
         <v>5.3</v>
       </c>
     </row>
@@ -4977,7 +4958,7 @@
       <c r="A111">
         <v>54.5</v>
       </c>
-      <c r="B111" s="43">
+      <c r="B111" s="44">
         <v>5.3</v>
       </c>
     </row>
@@ -4985,7 +4966,7 @@
       <c r="A112">
         <v>55</v>
       </c>
-      <c r="B112" s="43">
+      <c r="B112" s="44">
         <v>5.4</v>
       </c>
     </row>
@@ -4993,7 +4974,7 @@
       <c r="A113">
         <v>55.5</v>
       </c>
-      <c r="B113" s="43">
+      <c r="B113" s="44">
         <v>5.4</v>
       </c>
     </row>
@@ -5001,7 +4982,7 @@
       <c r="A114">
         <v>56</v>
       </c>
-      <c r="B114" s="43">
+      <c r="B114" s="44">
         <v>5.5</v>
       </c>
     </row>
@@ -5009,7 +4990,7 @@
       <c r="A115">
         <v>56.5</v>
       </c>
-      <c r="B115" s="43">
+      <c r="B115" s="44">
         <v>5.6</v>
       </c>
     </row>
@@ -5017,7 +4998,7 @@
       <c r="A116">
         <v>57</v>
       </c>
-      <c r="B116" s="43">
+      <c r="B116" s="44">
         <v>5.6</v>
       </c>
     </row>
@@ -5025,7 +5006,7 @@
       <c r="A117">
         <v>57.5</v>
       </c>
-      <c r="B117" s="43">
+      <c r="B117" s="44">
         <v>5.7</v>
       </c>
     </row>
@@ -5033,7 +5014,7 @@
       <c r="A118">
         <v>58</v>
       </c>
-      <c r="B118" s="43">
+      <c r="B118" s="44">
         <v>5.7</v>
       </c>
     </row>
@@ -5041,7 +5022,7 @@
       <c r="A119">
         <v>58.5</v>
       </c>
-      <c r="B119" s="43">
+      <c r="B119" s="44">
         <v>5.8</v>
       </c>
     </row>
@@ -5049,7 +5030,7 @@
       <c r="A120">
         <v>59</v>
       </c>
-      <c r="B120" s="43">
+      <c r="B120" s="44">
         <v>5.8</v>
       </c>
     </row>
@@ -5057,7 +5038,7 @@
       <c r="A121">
         <v>59.5</v>
       </c>
-      <c r="B121" s="43">
+      <c r="B121" s="44">
         <v>5.9</v>
       </c>
     </row>
@@ -5065,7 +5046,7 @@
       <c r="A122">
         <v>60</v>
       </c>
-      <c r="B122" s="43">
+      <c r="B122" s="44">
         <v>5.9</v>
       </c>
     </row>
@@ -5073,7 +5054,7 @@
       <c r="A123">
         <v>60.5</v>
       </c>
-      <c r="B123" s="43">
+      <c r="B123" s="44">
         <v>6</v>
       </c>
     </row>
@@ -5081,7 +5062,7 @@
       <c r="A124">
         <v>61</v>
       </c>
-      <c r="B124" s="43">
+      <c r="B124" s="44">
         <v>6</v>
       </c>
     </row>
@@ -5089,7 +5070,7 @@
       <c r="A125">
         <v>61.5</v>
       </c>
-      <c r="B125" s="43">
+      <c r="B125" s="44">
         <v>6.1</v>
       </c>
     </row>
@@ -5097,7 +5078,7 @@
       <c r="A126">
         <v>62</v>
       </c>
-      <c r="B126" s="43">
+      <c r="B126" s="44">
         <v>6.1</v>
       </c>
     </row>
@@ -5105,7 +5086,7 @@
       <c r="A127">
         <v>62.5</v>
       </c>
-      <c r="B127" s="43">
+      <c r="B127" s="44">
         <v>6.2</v>
       </c>
     </row>
@@ -5113,7 +5094,7 @@
       <c r="A128">
         <v>63</v>
       </c>
-      <c r="B128" s="43">
+      <c r="B128" s="44">
         <v>6.3</v>
       </c>
     </row>
@@ -5121,7 +5102,7 @@
       <c r="A129">
         <v>63.5</v>
       </c>
-      <c r="B129" s="43">
+      <c r="B129" s="44">
         <v>6.3</v>
       </c>
     </row>
@@ -5129,7 +5110,7 @@
       <c r="A130">
         <v>64</v>
       </c>
-      <c r="B130" s="43">
+      <c r="B130" s="44">
         <v>6.4</v>
       </c>
     </row>
@@ -5137,7 +5118,7 @@
       <c r="A131">
         <v>64.5</v>
       </c>
-      <c r="B131" s="43">
+      <c r="B131" s="44">
         <v>6.4</v>
       </c>
     </row>
@@ -5145,7 +5126,7 @@
       <c r="A132">
         <v>65</v>
       </c>
-      <c r="B132" s="43">
+      <c r="B132" s="44">
         <v>6.5</v>
       </c>
     </row>
@@ -5153,7 +5134,7 @@
       <c r="A133">
         <v>65.5</v>
       </c>
-      <c r="B133" s="43">
+      <c r="B133" s="44">
         <v>6.5</v>
       </c>
     </row>
@@ -5161,7 +5142,7 @@
       <c r="A134">
         <v>66</v>
       </c>
-      <c r="B134" s="43">
+      <c r="B134" s="44">
         <v>6.6</v>
       </c>
     </row>
@@ -5169,7 +5150,7 @@
       <c r="A135">
         <v>66.5</v>
       </c>
-      <c r="B135" s="43">
+      <c r="B135" s="44">
         <v>6.6</v>
       </c>
     </row>
@@ -5177,7 +5158,7 @@
       <c r="A136">
         <v>67</v>
       </c>
-      <c r="B136" s="43">
+      <c r="B136" s="44">
         <v>6.7</v>
       </c>
     </row>
@@ -5185,7 +5166,7 @@
       <c r="A137">
         <v>67.5</v>
       </c>
-      <c r="B137" s="43">
+      <c r="B137" s="44">
         <v>6.7</v>
       </c>
     </row>
@@ -5193,7 +5174,7 @@
       <c r="A138">
         <v>68</v>
       </c>
-      <c r="B138" s="43">
+      <c r="B138" s="44">
         <v>6.8</v>
       </c>
     </row>
@@ -5201,7 +5182,7 @@
       <c r="A139">
         <v>68.5</v>
       </c>
-      <c r="B139" s="43">
+      <c r="B139" s="44">
         <v>6.8</v>
       </c>
     </row>
@@ -5209,7 +5190,7 @@
       <c r="A140">
         <v>69</v>
       </c>
-      <c r="B140" s="43">
+      <c r="B140" s="44">
         <v>6.9</v>
       </c>
     </row>
@@ -5217,7 +5198,7 @@
       <c r="A141">
         <v>69.5</v>
       </c>
-      <c r="B141" s="43">
+      <c r="B141" s="44">
         <v>6.9</v>
       </c>
     </row>
@@ -5225,7 +5206,7 @@
       <c r="A142">
         <v>70</v>
       </c>
-      <c r="B142" s="43">
+      <c r="B142" s="44">
         <v>7</v>
       </c>
     </row>
@@ -7513,7 +7494,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="44">
         <v>1</v>
       </c>
     </row>
@@ -7521,7 +7502,7 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="44">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -7529,7 +7510,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="44">
         <v>1.2</v>
       </c>
     </row>
@@ -7537,7 +7518,7 @@
       <c r="A5">
         <v>1.5</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="44">
         <v>1.3</v>
       </c>
     </row>
@@ -7545,7 +7526,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="44">
         <v>1.3</v>
       </c>
     </row>
@@ -7553,7 +7534,7 @@
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="44">
         <v>1.4</v>
       </c>
     </row>
@@ -7561,7 +7542,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="44">
         <v>1.5</v>
       </c>
     </row>
@@ -7569,7 +7550,7 @@
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="44">
         <v>1.6</v>
       </c>
     </row>
@@ -7577,7 +7558,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="44">
         <v>1.7</v>
       </c>
     </row>
@@ -7585,7 +7566,7 @@
       <c r="A11">
         <v>4.5</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="44">
         <v>1.8</v>
       </c>
     </row>
@@ -7593,7 +7574,7 @@
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="44">
         <v>1.8</v>
       </c>
     </row>
@@ -7601,7 +7582,7 @@
       <c r="A13">
         <v>5.5</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="44">
         <v>1.9</v>
       </c>
     </row>
@@ -7609,7 +7590,7 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="44">
         <v>2</v>
       </c>
     </row>
@@ -7617,7 +7598,7 @@
       <c r="A15">
         <v>6.5</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="44">
         <v>2.1</v>
       </c>
     </row>
@@ -7625,7 +7606,7 @@
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="44">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -7633,7 +7614,7 @@
       <c r="A17">
         <v>7.5</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="44">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -7641,7 +7622,7 @@
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="44">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -7649,7 +7630,7 @@
       <c r="A19">
         <v>8.5</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="44">
         <v>2.4</v>
       </c>
     </row>
@@ -7657,7 +7638,7 @@
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="44">
         <v>2.5</v>
       </c>
     </row>
@@ -7665,7 +7646,7 @@
       <c r="A21">
         <v>9.5</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="44">
         <v>2.6</v>
       </c>
     </row>
@@ -7673,7 +7654,7 @@
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="44">
         <v>2.7</v>
       </c>
     </row>
@@ -7681,7 +7662,7 @@
       <c r="A23">
         <v>10.5</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="44">
         <v>2.8</v>
       </c>
     </row>
@@ -7689,7 +7670,7 @@
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="44">
         <v>2.8</v>
       </c>
     </row>
@@ -7697,7 +7678,7 @@
       <c r="A25">
         <v>11.5</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="44">
         <v>2.9</v>
       </c>
     </row>
@@ -7705,7 +7686,7 @@
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="44">
         <v>3</v>
       </c>
     </row>
@@ -7713,7 +7694,7 @@
       <c r="A27">
         <v>12.5</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="44">
         <v>3.1</v>
       </c>
     </row>
@@ -7721,7 +7702,7 @@
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="44">
         <v>3.2</v>
       </c>
     </row>
@@ -7729,7 +7710,7 @@
       <c r="A29">
         <v>13.5</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="44">
         <v>3.3</v>
       </c>
     </row>
@@ -7737,7 +7718,7 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="44">
         <v>3.3</v>
       </c>
     </row>
@@ -7745,7 +7726,7 @@
       <c r="A31">
         <v>14.5</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="44">
         <v>3.4</v>
       </c>
     </row>
@@ -7753,7 +7734,7 @@
       <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="44">
         <v>3.5</v>
       </c>
     </row>
@@ -7761,7 +7742,7 @@
       <c r="A33">
         <v>15.5</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="44">
         <v>3.6</v>
       </c>
     </row>
@@ -7769,7 +7750,7 @@
       <c r="A34">
         <v>16</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="44">
         <v>3.7</v>
       </c>
     </row>
@@ -7777,7 +7758,7 @@
       <c r="A35">
         <v>16.5</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="44">
         <v>3.8</v>
       </c>
     </row>
@@ -7785,7 +7766,7 @@
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="44">
         <v>3.8</v>
       </c>
     </row>
@@ -7793,7 +7774,7 @@
       <c r="A37">
         <v>17.5</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="44">
         <v>3.9</v>
       </c>
     </row>
@@ -7801,7 +7782,7 @@
       <c r="A38">
         <v>18</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="44">
         <v>4</v>
       </c>
     </row>
@@ -7809,7 +7790,7 @@
       <c r="A39">
         <v>18.5</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="44">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -7817,7 +7798,7 @@
       <c r="A40">
         <v>19</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="44">
         <v>4.3</v>
       </c>
     </row>
@@ -7825,7 +7806,7 @@
       <c r="A41">
         <v>19.5</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="44">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7833,7 +7814,7 @@
       <c r="A42">
         <v>20</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="44">
         <v>4.5</v>
       </c>
     </row>
@@ -7841,7 +7822,7 @@
       <c r="A43">
         <v>20.5</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="44">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -7849,7 +7830,7 @@
       <c r="A44">
         <v>21</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="44">
         <v>4.8</v>
       </c>
     </row>
@@ -7857,7 +7838,7 @@
       <c r="A45">
         <v>21.5</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="44">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -7865,7 +7846,7 @@
       <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="44">
         <v>5</v>
       </c>
     </row>
@@ -7873,7 +7854,7 @@
       <c r="A47">
         <v>22.5</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="44">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -7881,7 +7862,7 @@
       <c r="A48">
         <v>23</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="44">
         <v>5.3</v>
       </c>
     </row>
@@ -7889,7 +7870,7 @@
       <c r="A49">
         <v>23.5</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="44">
         <v>5.4</v>
       </c>
     </row>
@@ -7897,7 +7878,7 @@
       <c r="A50">
         <v>24</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="44">
         <v>5.5</v>
       </c>
     </row>
@@ -7905,7 +7886,7 @@
       <c r="A51">
         <v>24.5</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="44">
         <v>5.6</v>
       </c>
     </row>
@@ -7913,7 +7894,7 @@
       <c r="A52">
         <v>25</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="44">
         <v>5.8</v>
       </c>
     </row>
@@ -7921,7 +7902,7 @@
       <c r="A53">
         <v>25.5</v>
       </c>
-      <c r="B53" s="43">
+      <c r="B53" s="44">
         <v>5.9</v>
       </c>
     </row>
@@ -7929,7 +7910,7 @@
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="44">
         <v>6</v>
       </c>
     </row>
@@ -7937,7 +7918,7 @@
       <c r="A55">
         <v>26.5</v>
       </c>
-      <c r="B55" s="43">
+      <c r="B55" s="44">
         <v>6.1</v>
       </c>
     </row>
@@ -7945,7 +7926,7 @@
       <c r="A56">
         <v>27</v>
       </c>
-      <c r="B56" s="43">
+      <c r="B56" s="44">
         <v>6.3</v>
       </c>
     </row>
@@ -7953,7 +7934,7 @@
       <c r="A57">
         <v>27.5</v>
       </c>
-      <c r="B57" s="43">
+      <c r="B57" s="44">
         <v>6.4</v>
       </c>
     </row>
@@ -7961,7 +7942,7 @@
       <c r="A58">
         <v>28</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="44">
         <v>6.5</v>
       </c>
     </row>
@@ -7969,7 +7950,7 @@
       <c r="A59">
         <v>28.5</v>
       </c>
-      <c r="B59" s="43">
+      <c r="B59" s="44">
         <v>6.6</v>
       </c>
     </row>
@@ -7977,7 +7958,7 @@
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="44">
         <v>6.8</v>
       </c>
     </row>
@@ -7985,7 +7966,7 @@
       <c r="A61">
         <v>29.5</v>
       </c>
-      <c r="B61" s="43">
+      <c r="B61" s="44">
         <v>6.9</v>
       </c>
     </row>
@@ -7993,7 +7974,7 @@
       <c r="A62">
         <v>30</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="44">
         <v>7</v>
       </c>
     </row>
@@ -8955,7 +8936,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -8966,7 +8947,7 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
@@ -8976,7 +8957,7 @@
       <c r="D2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>10</v>
       </c>
     </row>
